--- a/docs/BIGRAMA_GERAL.xlsx
+++ b/docs/BIGRAMA_GERAL.xlsx
@@ -672,6 +672,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -688,9 +691,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1092,7 +1092,7 @@
   <dimension ref="A1:AC99"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="91" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1114,39 +1114,39 @@
       <c r="A1" s="1"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="28" t="s">
+      <c r="D6" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="29" t="s">
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
-      <c r="M6" s="30" t="s">
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="M6" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="N6" s="30"/>
-      <c r="O6" s="30"/>
-      <c r="P6" s="30"/>
-      <c r="Q6" s="30"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="24"/>
+      <c r="P6" s="24"/>
+      <c r="Q6" s="24"/>
     </row>
     <row r="7" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="25"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="27"/>
+      <c r="A7" s="26"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="28"/>
       <c r="D7" s="3" t="s">
         <v>5</v>
       </c>
@@ -1204,7 +1204,9 @@
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
+      <c r="K8" s="9">
+        <v>0.83618680000000001</v>
+      </c>
       <c r="M8" s="2">
         <v>172</v>
       </c>
@@ -1239,7 +1241,9 @@
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
+      <c r="K9" s="9">
+        <v>0.83734629999999999</v>
+      </c>
       <c r="M9" s="2">
         <v>155.69999999999999</v>
       </c>
@@ -1273,7 +1277,9 @@
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
+      <c r="K10" s="9">
+        <v>0.83665959999999995</v>
+      </c>
       <c r="M10" s="2">
         <v>139.4</v>
       </c>
@@ -1738,32 +1744,32 @@
       <c r="K27" s="9"/>
     </row>
     <row r="29" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A29" s="24" t="s">
+      <c r="A29" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B29" s="24" t="s">
+      <c r="B29" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C29" s="26" t="s">
+      <c r="C29" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D29" s="28" t="s">
+      <c r="D29" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="29" t="s">
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="I29" s="29"/>
-      <c r="J29" s="29"/>
-      <c r="K29" s="29"/>
+      <c r="I29" s="30"/>
+      <c r="J29" s="30"/>
+      <c r="K29" s="30"/>
     </row>
     <row r="30" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="25"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="27"/>
+      <c r="A30" s="26"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="28"/>
       <c r="D30" s="3" t="s">
         <v>5</v>
       </c>
@@ -1978,32 +1984,32 @@
       <c r="K36" s="9"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A37" s="24" t="s">
+      <c r="A37" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B37" s="24" t="s">
+      <c r="B37" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C37" s="26" t="s">
+      <c r="C37" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D37" s="28" t="s">
+      <c r="D37" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E37" s="28"/>
-      <c r="F37" s="28"/>
-      <c r="G37" s="28"/>
-      <c r="H37" s="29" t="s">
+      <c r="E37" s="29"/>
+      <c r="F37" s="29"/>
+      <c r="G37" s="29"/>
+      <c r="H37" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="I37" s="29"/>
-      <c r="J37" s="29"/>
-      <c r="K37" s="29"/>
+      <c r="I37" s="30"/>
+      <c r="J37" s="30"/>
+      <c r="K37" s="30"/>
     </row>
     <row r="38" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A38" s="25"/>
-      <c r="B38" s="25"/>
-      <c r="C38" s="27"/>
+      <c r="A38" s="26"/>
+      <c r="B38" s="26"/>
+      <c r="C38" s="28"/>
       <c r="D38" s="3" t="s">
         <v>5</v>
       </c>
@@ -2220,32 +2226,32 @@
       <c r="K44" s="9"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A45" s="24" t="s">
+      <c r="A45" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B45" s="24" t="s">
+      <c r="B45" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C45" s="26" t="s">
+      <c r="C45" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D45" s="28" t="s">
+      <c r="D45" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E45" s="28"/>
-      <c r="F45" s="28"/>
-      <c r="G45" s="28"/>
-      <c r="H45" s="29" t="s">
+      <c r="E45" s="29"/>
+      <c r="F45" s="29"/>
+      <c r="G45" s="29"/>
+      <c r="H45" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="I45" s="29"/>
-      <c r="J45" s="29"/>
-      <c r="K45" s="29"/>
+      <c r="I45" s="30"/>
+      <c r="J45" s="30"/>
+      <c r="K45" s="30"/>
     </row>
     <row r="46" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A46" s="25"/>
-      <c r="B46" s="25"/>
-      <c r="C46" s="27"/>
+      <c r="A46" s="26"/>
+      <c r="B46" s="26"/>
+      <c r="C46" s="28"/>
       <c r="D46" s="3" t="s">
         <v>5</v>
       </c>
@@ -2455,32 +2461,32 @@
       <c r="G52" s="8"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A53" s="24" t="s">
+      <c r="A53" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B53" s="24" t="s">
+      <c r="B53" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C53" s="26" t="s">
+      <c r="C53" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D53" s="28" t="s">
+      <c r="D53" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E53" s="28"/>
-      <c r="F53" s="28"/>
-      <c r="G53" s="28"/>
-      <c r="H53" s="29" t="s">
+      <c r="E53" s="29"/>
+      <c r="F53" s="29"/>
+      <c r="G53" s="29"/>
+      <c r="H53" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="I53" s="29"/>
-      <c r="J53" s="29"/>
-      <c r="K53" s="29"/>
+      <c r="I53" s="30"/>
+      <c r="J53" s="30"/>
+      <c r="K53" s="30"/>
     </row>
     <row r="54" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A54" s="25"/>
-      <c r="B54" s="25"/>
-      <c r="C54" s="27"/>
+      <c r="A54" s="26"/>
+      <c r="B54" s="26"/>
+      <c r="C54" s="28"/>
       <c r="D54" s="3" t="s">
         <v>5</v>
       </c>
@@ -2690,32 +2696,32 @@
       <c r="G60" s="8"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A61" s="24" t="s">
+      <c r="A61" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B61" s="24" t="s">
+      <c r="B61" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C61" s="26" t="s">
+      <c r="C61" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D61" s="28" t="s">
+      <c r="D61" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E61" s="28"/>
-      <c r="F61" s="28"/>
-      <c r="G61" s="28"/>
-      <c r="H61" s="29" t="s">
+      <c r="E61" s="29"/>
+      <c r="F61" s="29"/>
+      <c r="G61" s="29"/>
+      <c r="H61" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="I61" s="29"/>
-      <c r="J61" s="29"/>
-      <c r="K61" s="29"/>
+      <c r="I61" s="30"/>
+      <c r="J61" s="30"/>
+      <c r="K61" s="30"/>
     </row>
     <row r="62" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A62" s="25"/>
-      <c r="B62" s="25"/>
-      <c r="C62" s="27"/>
+      <c r="A62" s="26"/>
+      <c r="B62" s="26"/>
+      <c r="C62" s="28"/>
       <c r="D62" s="3" t="s">
         <v>5</v>
       </c>
@@ -2925,32 +2931,32 @@
       <c r="G68" s="8"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A69" s="24" t="s">
+      <c r="A69" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B69" s="24" t="s">
+      <c r="B69" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C69" s="26" t="s">
+      <c r="C69" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D69" s="28" t="s">
+      <c r="D69" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E69" s="28"/>
-      <c r="F69" s="28"/>
-      <c r="G69" s="28"/>
-      <c r="H69" s="29" t="s">
+      <c r="E69" s="29"/>
+      <c r="F69" s="29"/>
+      <c r="G69" s="29"/>
+      <c r="H69" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="I69" s="29"/>
-      <c r="J69" s="29"/>
-      <c r="K69" s="29"/>
+      <c r="I69" s="30"/>
+      <c r="J69" s="30"/>
+      <c r="K69" s="30"/>
     </row>
     <row r="70" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A70" s="25"/>
-      <c r="B70" s="25"/>
-      <c r="C70" s="27"/>
+      <c r="A70" s="26"/>
+      <c r="B70" s="26"/>
+      <c r="C70" s="28"/>
       <c r="D70" s="3" t="s">
         <v>5</v>
       </c>
@@ -3160,32 +3166,32 @@
       <c r="G76" s="8"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A77" s="24" t="s">
+      <c r="A77" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B77" s="24" t="s">
+      <c r="B77" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C77" s="26" t="s">
+      <c r="C77" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D77" s="28" t="s">
+      <c r="D77" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E77" s="28"/>
-      <c r="F77" s="28"/>
-      <c r="G77" s="28"/>
-      <c r="H77" s="29" t="s">
+      <c r="E77" s="29"/>
+      <c r="F77" s="29"/>
+      <c r="G77" s="29"/>
+      <c r="H77" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="I77" s="29"/>
-      <c r="J77" s="29"/>
-      <c r="K77" s="29"/>
+      <c r="I77" s="30"/>
+      <c r="J77" s="30"/>
+      <c r="K77" s="30"/>
     </row>
     <row r="78" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A78" s="25"/>
-      <c r="B78" s="25"/>
-      <c r="C78" s="27"/>
+      <c r="A78" s="26"/>
+      <c r="B78" s="26"/>
+      <c r="C78" s="28"/>
       <c r="D78" s="3" t="s">
         <v>5</v>
       </c>
@@ -3395,32 +3401,32 @@
       <c r="G84" s="8"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A85" s="24" t="s">
+      <c r="A85" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B85" s="24" t="s">
+      <c r="B85" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C85" s="26" t="s">
+      <c r="C85" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D85" s="28" t="s">
+      <c r="D85" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E85" s="28"/>
-      <c r="F85" s="28"/>
-      <c r="G85" s="28"/>
-      <c r="H85" s="29" t="s">
+      <c r="E85" s="29"/>
+      <c r="F85" s="29"/>
+      <c r="G85" s="29"/>
+      <c r="H85" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="I85" s="29"/>
-      <c r="J85" s="29"/>
-      <c r="K85" s="29"/>
+      <c r="I85" s="30"/>
+      <c r="J85" s="30"/>
+      <c r="K85" s="30"/>
     </row>
     <row r="86" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A86" s="25"/>
-      <c r="B86" s="25"/>
-      <c r="C86" s="27"/>
+      <c r="A86" s="26"/>
+      <c r="B86" s="26"/>
+      <c r="C86" s="28"/>
       <c r="D86" s="3" t="s">
         <v>5</v>
       </c>
@@ -3630,32 +3636,32 @@
       <c r="G92" s="8"/>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A93" s="24" t="s">
+      <c r="A93" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B93" s="24" t="s">
+      <c r="B93" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C93" s="26" t="s">
+      <c r="C93" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D93" s="28" t="s">
+      <c r="D93" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E93" s="28"/>
-      <c r="F93" s="28"/>
-      <c r="G93" s="28"/>
-      <c r="H93" s="29" t="s">
+      <c r="E93" s="29"/>
+      <c r="F93" s="29"/>
+      <c r="G93" s="29"/>
+      <c r="H93" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="I93" s="29"/>
-      <c r="J93" s="29"/>
-      <c r="K93" s="29"/>
+      <c r="I93" s="30"/>
+      <c r="J93" s="30"/>
+      <c r="K93" s="30"/>
     </row>
     <row r="94" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A94" s="25"/>
-      <c r="B94" s="25"/>
-      <c r="C94" s="27"/>
+      <c r="A94" s="26"/>
+      <c r="B94" s="26"/>
+      <c r="C94" s="28"/>
       <c r="D94" s="3" t="s">
         <v>5</v>
       </c>
@@ -3858,6 +3864,46 @@
     </row>
   </sheetData>
   <mergeCells count="51">
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="C93:C94"/>
+    <mergeCell ref="D93:G93"/>
+    <mergeCell ref="H93:K93"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="D85:G85"/>
+    <mergeCell ref="H85:K85"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="D77:G77"/>
+    <mergeCell ref="H77:K77"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="D69:G69"/>
+    <mergeCell ref="H69:K69"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="D61:G61"/>
+    <mergeCell ref="H61:K61"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:G53"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D45:G45"/>
+    <mergeCell ref="H45:K45"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:G37"/>
+    <mergeCell ref="H37:K37"/>
     <mergeCell ref="M6:Q6"/>
     <mergeCell ref="A29:A30"/>
     <mergeCell ref="B29:B30"/>
@@ -3869,46 +3915,6 @@
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:G6"/>
     <mergeCell ref="H6:K6"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:G37"/>
-    <mergeCell ref="H37:K37"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D45:G45"/>
-    <mergeCell ref="H45:K45"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:G53"/>
-    <mergeCell ref="H53:K53"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="D61:G61"/>
-    <mergeCell ref="H61:K61"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="D69:G69"/>
-    <mergeCell ref="H69:K69"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="D77:G77"/>
-    <mergeCell ref="H77:K77"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="C85:C86"/>
-    <mergeCell ref="D85:G85"/>
-    <mergeCell ref="H85:K85"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="B93:B94"/>
-    <mergeCell ref="C93:C94"/>
-    <mergeCell ref="D93:G93"/>
-    <mergeCell ref="H93:K93"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/docs/BIGRAMA_GERAL.xlsx
+++ b/docs/BIGRAMA_GERAL.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="102">
   <si>
     <t>Experimento</t>
   </si>
@@ -324,6 +324,15 @@
   </si>
   <si>
     <t>AE_BIGRAMA_10L_OVER_05</t>
+  </si>
+  <si>
+    <t>ESCOLHIDAS</t>
+  </si>
+  <si>
+    <t>AE_BIGRAMA_2L_OVER_02</t>
+  </si>
+  <si>
+    <t>AE_BIGRAMA_2L_OVER_03</t>
   </si>
 </sst>
 </file>
@@ -478,7 +487,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -513,6 +522,17 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -534,17 +554,8 @@
     <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -941,10 +952,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2B1B422-5711-4894-8EC8-3356671E451B}">
-  <dimension ref="A1:AC99"/>
+  <dimension ref="A1:AD99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="91" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="W7" zoomScale="91" workbookViewId="0">
+      <selection activeCell="Z23" sqref="Z23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -959,46 +970,70 @@
     <col min="9" max="9" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.88671875" style="2" customWidth="1"/>
     <col min="11" max="11" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.88671875" style="2"/>
+    <col min="12" max="22" width="8.88671875" style="2"/>
+    <col min="23" max="23" width="30.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.88671875" style="2"/>
+    <col min="26" max="26" width="28.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="33.5546875" style="2" customWidth="1"/>
+    <col min="28" max="28" width="12.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A6" s="20" t="s">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="M5" s="2">
+        <v>1.7</v>
+      </c>
+      <c r="N5" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="O5" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="P5" s="17">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="Q5" s="17">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A6" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="25" t="s">
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="M6" s="26" t="s">
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="M6" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="N6" s="26"/>
-      <c r="O6" s="26"/>
-      <c r="P6" s="26"/>
-      <c r="Q6" s="26"/>
-    </row>
-    <row r="7" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="21"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="23"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+      <c r="P6" s="31"/>
+      <c r="Q6" s="31"/>
+    </row>
+    <row r="7" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="26"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="28"/>
       <c r="D7" s="3" t="s">
         <v>5</v>
       </c>
@@ -1024,26 +1059,32 @@
         <v>8</v>
       </c>
       <c r="M7" s="2">
-        <v>96</v>
+        <v>9216</v>
       </c>
       <c r="N7" s="2">
-        <v>96</v>
+        <v>9216</v>
       </c>
       <c r="O7" s="2">
-        <v>96</v>
+        <v>9216</v>
       </c>
       <c r="P7" s="17">
-        <v>96</v>
+        <v>9216</v>
       </c>
       <c r="Q7" s="17">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="30" t="s">
+        <v>9216</v>
+      </c>
+      <c r="W7" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="31" t="s">
+      <c r="X7" s="8">
+        <v>0.83618680000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="24" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="6"/>
@@ -1060,27 +1101,32 @@
         <v>0.83618680000000001</v>
       </c>
       <c r="M8" s="2">
-        <v>172</v>
+        <v>15667</v>
       </c>
       <c r="N8" s="2">
-        <v>134</v>
+        <v>13824</v>
       </c>
       <c r="O8" s="2">
-        <v>86</v>
+        <v>5530</v>
       </c>
       <c r="P8" s="17">
-        <v>76</v>
+        <v>10138</v>
       </c>
       <c r="Q8" s="17">
-        <v>28</v>
-      </c>
-      <c r="X8" s="17"/>
-    </row>
-    <row r="9" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="30" t="s">
+        <v>14746</v>
+      </c>
+      <c r="W8" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="31" t="s">
+      <c r="X8" s="22">
+        <v>0.83734629999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="24" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="6"/>
@@ -1093,30 +1139,36 @@
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
-      <c r="K9" s="8">
+      <c r="K9" s="32">
         <v>0.83734629999999999</v>
       </c>
       <c r="M9" s="2">
-        <v>155.69999999999999</v>
+        <v>14101</v>
       </c>
       <c r="N9" s="2">
-        <v>121.5</v>
+        <v>12443</v>
       </c>
       <c r="O9" s="2">
-        <v>78.3</v>
+        <v>4978</v>
       </c>
       <c r="P9" s="17">
-        <v>69.3</v>
+        <v>9125</v>
       </c>
       <c r="Q9" s="17">
-        <v>26.1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="30" t="s">
+        <v>13272</v>
+      </c>
+      <c r="W9" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="31" t="s">
+      <c r="X9" s="32">
+        <v>0.83665959999999995</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="24" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="6"/>
@@ -1129,66 +1181,78 @@
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
-      <c r="K10" s="8">
+      <c r="K10" s="32">
         <v>0.83665959999999995</v>
       </c>
       <c r="M10" s="2">
-        <v>139.4</v>
+        <v>12535</v>
       </c>
       <c r="N10" s="2">
-        <v>109</v>
+        <v>11061</v>
       </c>
       <c r="O10" s="2">
-        <v>70.599999999999994</v>
+        <v>4426</v>
       </c>
       <c r="P10" s="17">
-        <v>62.6</v>
+        <v>8112</v>
       </c>
       <c r="Q10" s="17">
-        <v>24.2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+        <v>11798</v>
+      </c>
+      <c r="W10" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="X10" s="22">
+        <v>0.83724600000000005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="28"/>
+      <c r="C11" s="21"/>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
       <c r="G11" s="9">
         <v>0.7166131</v>
       </c>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29">
-        <v>0.85362459999999996</v>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="32">
+        <v>0.83724600000000005</v>
       </c>
       <c r="M11" s="2">
-        <v>123.1</v>
+        <v>10970</v>
       </c>
       <c r="N11" s="2">
-        <v>96.5</v>
+        <v>9680</v>
       </c>
       <c r="O11" s="2">
-        <v>62.9</v>
+        <v>3874</v>
       </c>
       <c r="P11" s="17">
-        <v>55.9</v>
+        <v>7099</v>
       </c>
       <c r="Q11" s="17">
-        <v>22.3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="30" t="s">
+        <v>10324</v>
+      </c>
+      <c r="W11" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="31" t="s">
+      <c r="X11" s="32">
+        <v>0.83555539999999995</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="24" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="6"/>
@@ -1201,30 +1265,36 @@
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
-      <c r="K12" s="8">
+      <c r="K12" s="32">
         <v>0.83555539999999995</v>
       </c>
       <c r="M12" s="2">
-        <v>106.8</v>
+        <v>9404</v>
       </c>
       <c r="N12" s="2">
-        <v>84</v>
+        <v>8298</v>
       </c>
       <c r="O12" s="2">
-        <v>55.2</v>
+        <v>3322</v>
       </c>
       <c r="P12" s="17">
-        <v>49.2</v>
+        <v>6086</v>
       </c>
       <c r="Q12" s="17">
-        <v>20.400000000000002</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="30" t="s">
+        <v>8851</v>
+      </c>
+      <c r="W12" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="31" t="s">
+      <c r="X12" s="22">
+        <v>0.83795830000000004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="24" t="s">
         <v>14</v>
       </c>
       <c r="C13" s="6"/>
@@ -1237,30 +1307,36 @@
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
-      <c r="K13" s="8">
+      <c r="K13" s="32">
         <v>0.83795830000000004</v>
       </c>
       <c r="M13" s="2">
-        <v>90.5</v>
+        <v>7838</v>
       </c>
       <c r="N13" s="2">
-        <v>71.5</v>
+        <v>6917</v>
       </c>
       <c r="O13" s="2">
-        <v>47.5</v>
+        <v>2770</v>
       </c>
       <c r="P13" s="17">
-        <v>42.5</v>
+        <v>5074</v>
       </c>
       <c r="Q13" s="17">
-        <v>18.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="30" t="s">
+        <v>7378</v>
+      </c>
+      <c r="W13" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="31" t="s">
+      <c r="X13" s="32">
+        <v>0.83634220000000004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="24" t="s">
         <v>15</v>
       </c>
       <c r="C14" s="6"/>
@@ -1273,30 +1349,39 @@
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
-      <c r="K14" s="8">
+      <c r="K14" s="32">
         <v>0.83634220000000004</v>
       </c>
       <c r="M14" s="2">
-        <v>74.199999999999989</v>
+        <v>6272</v>
       </c>
       <c r="N14" s="2">
-        <v>59</v>
+        <v>5535</v>
       </c>
       <c r="O14" s="2">
-        <v>39.799999999999997</v>
+        <v>2217</v>
       </c>
       <c r="P14" s="17">
-        <v>35.799999999999997</v>
+        <v>4061</v>
       </c>
       <c r="Q14" s="17">
-        <v>16.600000000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="30" t="s">
+        <v>5904</v>
+      </c>
+      <c r="W14" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="31" t="s">
+      <c r="X14" s="32">
+        <v>0.83528259999999999</v>
+      </c>
+      <c r="AD14" s="16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="24" t="s">
         <v>16</v>
       </c>
       <c r="C15" s="6"/>
@@ -1309,30 +1394,39 @@
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
-      <c r="K15" s="8">
+      <c r="K15" s="32">
         <v>0.83528259999999999</v>
       </c>
       <c r="M15" s="2">
-        <v>57.899999999999991</v>
+        <v>4706</v>
       </c>
       <c r="N15" s="2">
-        <v>46.5</v>
+        <v>4154</v>
       </c>
       <c r="O15" s="2">
-        <v>32.1</v>
+        <v>1665</v>
       </c>
       <c r="P15" s="17">
-        <v>29.1</v>
+        <v>3048</v>
       </c>
       <c r="Q15" s="17">
-        <v>14.700000000000003</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="30" t="s">
+        <v>4430</v>
+      </c>
+      <c r="W15" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="31" t="s">
+      <c r="X15" s="32">
+        <v>0.83638900000000005</v>
+      </c>
+      <c r="AD15" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="24" t="s">
         <v>17</v>
       </c>
       <c r="C16" s="6"/>
@@ -1345,30 +1439,39 @@
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
-      <c r="K16" s="8">
+      <c r="K16" s="32">
         <v>0.83638900000000005</v>
       </c>
       <c r="M16" s="2">
-        <v>41.599999999999994</v>
+        <v>3141</v>
       </c>
       <c r="N16" s="2">
-        <v>34</v>
+        <v>2772</v>
       </c>
       <c r="O16" s="2">
-        <v>24.4</v>
+        <v>1113</v>
       </c>
       <c r="P16" s="17">
-        <v>22.4</v>
+        <v>2035</v>
       </c>
       <c r="Q16" s="17">
-        <v>12.800000000000004</v>
-      </c>
-    </row>
-    <row r="17" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="30" t="s">
+        <v>2956</v>
+      </c>
+      <c r="W16" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="B17" s="31" t="s">
+      <c r="X16" s="32">
+        <v>0.83698320000000004</v>
+      </c>
+      <c r="AD16" s="16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="24" t="s">
         <v>18</v>
       </c>
       <c r="C17" s="6"/>
@@ -1381,30 +1484,39 @@
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
-      <c r="K17" s="8">
+      <c r="K17" s="32">
         <v>0.83698320000000004</v>
       </c>
       <c r="M17" s="2">
-        <v>25.299999999999983</v>
+        <v>1575</v>
       </c>
       <c r="N17" s="2">
-        <v>21.5</v>
+        <v>1391</v>
       </c>
       <c r="O17" s="2">
-        <v>16.700000000000003</v>
+        <v>561</v>
       </c>
       <c r="P17" s="17">
-        <v>15.699999999999996</v>
+        <v>1022</v>
       </c>
       <c r="Q17" s="17">
-        <v>10.900000000000006</v>
-      </c>
-    </row>
-    <row r="18" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="30" t="s">
+        <v>1483</v>
+      </c>
+      <c r="W17" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="31" t="s">
+      <c r="X17" s="22">
+        <v>0.83773739999999997</v>
+      </c>
+      <c r="AD17" s="16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="24" t="s">
         <v>19</v>
       </c>
       <c r="C18" s="6"/>
@@ -1417,7 +1529,7 @@
       <c r="H18" s="8"/>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
-      <c r="K18" s="8">
+      <c r="K18" s="32">
         <v>0.83773739999999997</v>
       </c>
       <c r="M18" s="2">
@@ -1433,14 +1545,23 @@
         <v>9</v>
       </c>
       <c r="Q18" s="17">
-        <v>9.0000000000000036</v>
-      </c>
-    </row>
-    <row r="19" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="W18" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="31" t="s">
+      <c r="X18" s="32">
+        <v>0.83568200000000004</v>
+      </c>
+      <c r="AD18" s="16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="24" t="s">
         <v>20</v>
       </c>
       <c r="C19" s="6"/>
@@ -1453,16 +1574,21 @@
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
-      <c r="K19" s="8">
+      <c r="K19" s="32">
         <v>0.83568200000000004</v>
       </c>
-      <c r="X19" s="17"/>
-    </row>
-    <row r="20" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="30" t="s">
+      <c r="W19" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="B20" s="31" t="s">
+      <c r="X19" s="22">
+        <v>0.83716539999999995</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="24" t="s">
         <v>21</v>
       </c>
       <c r="C20" s="6"/>
@@ -1475,15 +1601,24 @@
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
-      <c r="K20" s="8">
+      <c r="K20" s="32">
         <v>0.83716539999999995</v>
       </c>
-    </row>
-    <row r="21" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="30" t="s">
+      <c r="W20" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="B21" s="31" t="s">
+      <c r="X20" s="32">
+        <v>0.83637340000000004</v>
+      </c>
+      <c r="AA20" s="33" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="24" t="s">
         <v>22</v>
       </c>
       <c r="C21" s="6"/>
@@ -1496,15 +1631,30 @@
       <c r="H21" s="8"/>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
-      <c r="K21" s="8">
+      <c r="K21" s="32">
         <v>0.83637340000000004</v>
       </c>
-    </row>
-    <row r="22" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="30" t="s">
+      <c r="W21" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="B22" s="31" t="s">
+      <c r="X21" s="22">
+        <v>0.83815379999999995</v>
+      </c>
+      <c r="Z21" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA21" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB21" s="22">
+        <v>0.83844677000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="24" t="s">
         <v>23</v>
       </c>
       <c r="C22" s="6"/>
@@ -1517,13 +1667,30 @@
       <c r="H22" s="8"/>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-    </row>
-    <row r="23" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="30" t="s">
+      <c r="K22" s="32">
+        <v>0.83815379999999995</v>
+      </c>
+      <c r="W22" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="B23" s="31" t="s">
+      <c r="X22" s="22">
+        <v>0.83748688000000004</v>
+      </c>
+      <c r="Z22" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA22" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB22" s="22">
+        <v>0.83815379999999995</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" s="24" t="s">
         <v>24</v>
       </c>
       <c r="C23" s="6"/>
@@ -1536,16 +1703,30 @@
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="AC23" s="2">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="24" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="30" t="s">
+      <c r="K23" s="32">
+        <v>0.83748688000000004</v>
+      </c>
+      <c r="W23" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="B24" s="31" t="s">
+      <c r="X23" s="22">
+        <v>0.83844677000000001</v>
+      </c>
+      <c r="Z23" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA23" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB23" s="22">
+        <v>0.83795830000000004</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" s="24" t="s">
         <v>25</v>
       </c>
       <c r="C24" s="6"/>
@@ -1558,13 +1739,30 @@
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-    </row>
-    <row r="25" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="30" t="s">
+      <c r="K24" s="32">
+        <v>0.83844677000000001</v>
+      </c>
+      <c r="W24" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="B25" s="31" t="s">
+      <c r="X24" s="32">
+        <v>0.83622465999999995</v>
+      </c>
+      <c r="Z24" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="AA24" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB24" s="22">
+        <v>0.83773739999999997</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" s="24" t="s">
         <v>26</v>
       </c>
       <c r="C25" s="6"/>
@@ -1577,13 +1775,30 @@
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-    </row>
-    <row r="26" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="30" t="s">
+      <c r="K25" s="32">
+        <v>0.83622465999999995</v>
+      </c>
+      <c r="W25" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="B26" s="31" t="s">
+      <c r="X25" s="32">
+        <v>0.83633111000000004</v>
+      </c>
+      <c r="Z25" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA25" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB25" s="22">
+        <v>0.83748688000000004</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" s="24" t="s">
         <v>27</v>
       </c>
       <c r="C26" s="6"/>
@@ -1596,13 +1811,21 @@
       <c r="H26" s="8"/>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-    </row>
-    <row r="27" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="30" t="s">
+      <c r="K26" s="32">
+        <v>0.83633111000000004</v>
+      </c>
+      <c r="W26" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="B27" s="31" t="s">
+      <c r="X26" s="32">
+        <v>0.83674999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" s="24" t="s">
         <v>28</v>
       </c>
       <c r="C27" s="6"/>
@@ -1615,35 +1838,37 @@
       <c r="H27" s="8"/>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-    </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A29" s="20" t="s">
+      <c r="K27" s="32">
+        <v>0.83674999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A29" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B29" s="20" t="s">
+      <c r="B29" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C29" s="22" t="s">
+      <c r="C29" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D29" s="24" t="s">
+      <c r="D29" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="25" t="s">
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="I29" s="25"/>
-      <c r="J29" s="25"/>
-      <c r="K29" s="25"/>
-    </row>
-    <row r="30" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="21"/>
-      <c r="B30" s="21"/>
-      <c r="C30" s="23"/>
+      <c r="I29" s="30"/>
+      <c r="J29" s="30"/>
+      <c r="K29" s="30"/>
+    </row>
+    <row r="30" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="26"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="28"/>
       <c r="D30" s="3" t="s">
         <v>5</v>
       </c>
@@ -1669,7 +1894,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="16" t="s">
         <v>54</v>
       </c>
@@ -1686,7 +1911,7 @@
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
     </row>
-    <row r="32" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="16" t="s">
         <v>55</v>
       </c>
@@ -1768,32 +1993,32 @@
       <c r="K36" s="8"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A37" s="20" t="s">
+      <c r="A37" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B37" s="20" t="s">
+      <c r="B37" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C37" s="22" t="s">
+      <c r="C37" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D37" s="24" t="s">
+      <c r="D37" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E37" s="24"/>
-      <c r="F37" s="24"/>
-      <c r="G37" s="24"/>
-      <c r="H37" s="25" t="s">
+      <c r="E37" s="29"/>
+      <c r="F37" s="29"/>
+      <c r="G37" s="29"/>
+      <c r="H37" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="I37" s="25"/>
-      <c r="J37" s="25"/>
-      <c r="K37" s="25"/>
+      <c r="I37" s="30"/>
+      <c r="J37" s="30"/>
+      <c r="K37" s="30"/>
     </row>
     <row r="38" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A38" s="21"/>
-      <c r="B38" s="21"/>
-      <c r="C38" s="23"/>
+      <c r="A38" s="26"/>
+      <c r="B38" s="26"/>
+      <c r="C38" s="28"/>
       <c r="D38" s="3" t="s">
         <v>5</v>
       </c>
@@ -1920,32 +2145,32 @@
       <c r="K44" s="8"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A45" s="20" t="s">
+      <c r="A45" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B45" s="20" t="s">
+      <c r="B45" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C45" s="22" t="s">
+      <c r="C45" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D45" s="24" t="s">
+      <c r="D45" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E45" s="24"/>
-      <c r="F45" s="24"/>
-      <c r="G45" s="24"/>
-      <c r="H45" s="25" t="s">
+      <c r="E45" s="29"/>
+      <c r="F45" s="29"/>
+      <c r="G45" s="29"/>
+      <c r="H45" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="I45" s="25"/>
-      <c r="J45" s="25"/>
-      <c r="K45" s="25"/>
+      <c r="I45" s="30"/>
+      <c r="J45" s="30"/>
+      <c r="K45" s="30"/>
     </row>
     <row r="46" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A46" s="21"/>
-      <c r="B46" s="21"/>
-      <c r="C46" s="23"/>
+      <c r="A46" s="26"/>
+      <c r="B46" s="26"/>
+      <c r="C46" s="28"/>
       <c r="D46" s="3" t="s">
         <v>5</v>
       </c>
@@ -2065,32 +2290,32 @@
       <c r="G52" s="7"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A53" s="20" t="s">
+      <c r="A53" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B53" s="20" t="s">
+      <c r="B53" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C53" s="22" t="s">
+      <c r="C53" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D53" s="24" t="s">
+      <c r="D53" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E53" s="24"/>
-      <c r="F53" s="24"/>
-      <c r="G53" s="24"/>
-      <c r="H53" s="25" t="s">
+      <c r="E53" s="29"/>
+      <c r="F53" s="29"/>
+      <c r="G53" s="29"/>
+      <c r="H53" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="I53" s="25"/>
-      <c r="J53" s="25"/>
-      <c r="K53" s="25"/>
+      <c r="I53" s="30"/>
+      <c r="J53" s="30"/>
+      <c r="K53" s="30"/>
     </row>
     <row r="54" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A54" s="21"/>
-      <c r="B54" s="21"/>
-      <c r="C54" s="23"/>
+      <c r="A54" s="26"/>
+      <c r="B54" s="26"/>
+      <c r="C54" s="28"/>
       <c r="D54" s="3" t="s">
         <v>5</v>
       </c>
@@ -2210,32 +2435,32 @@
       <c r="G60" s="7"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A61" s="20" t="s">
+      <c r="A61" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B61" s="20" t="s">
+      <c r="B61" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C61" s="22" t="s">
+      <c r="C61" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D61" s="24" t="s">
+      <c r="D61" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E61" s="24"/>
-      <c r="F61" s="24"/>
-      <c r="G61" s="24"/>
-      <c r="H61" s="25" t="s">
+      <c r="E61" s="29"/>
+      <c r="F61" s="29"/>
+      <c r="G61" s="29"/>
+      <c r="H61" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="I61" s="25"/>
-      <c r="J61" s="25"/>
-      <c r="K61" s="25"/>
+      <c r="I61" s="30"/>
+      <c r="J61" s="30"/>
+      <c r="K61" s="30"/>
     </row>
     <row r="62" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A62" s="21"/>
-      <c r="B62" s="21"/>
-      <c r="C62" s="23"/>
+      <c r="A62" s="26"/>
+      <c r="B62" s="26"/>
+      <c r="C62" s="28"/>
       <c r="D62" s="3" t="s">
         <v>5</v>
       </c>
@@ -2355,32 +2580,32 @@
       <c r="G68" s="7"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A69" s="20" t="s">
+      <c r="A69" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B69" s="20" t="s">
+      <c r="B69" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C69" s="22" t="s">
+      <c r="C69" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D69" s="24" t="s">
+      <c r="D69" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E69" s="24"/>
-      <c r="F69" s="24"/>
-      <c r="G69" s="24"/>
-      <c r="H69" s="25" t="s">
+      <c r="E69" s="29"/>
+      <c r="F69" s="29"/>
+      <c r="G69" s="29"/>
+      <c r="H69" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="I69" s="25"/>
-      <c r="J69" s="25"/>
-      <c r="K69" s="25"/>
+      <c r="I69" s="30"/>
+      <c r="J69" s="30"/>
+      <c r="K69" s="30"/>
     </row>
     <row r="70" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A70" s="21"/>
-      <c r="B70" s="21"/>
-      <c r="C70" s="23"/>
+      <c r="A70" s="26"/>
+      <c r="B70" s="26"/>
+      <c r="C70" s="28"/>
       <c r="D70" s="3" t="s">
         <v>5</v>
       </c>
@@ -2500,32 +2725,32 @@
       <c r="G76" s="7"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A77" s="20" t="s">
+      <c r="A77" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B77" s="20" t="s">
+      <c r="B77" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C77" s="22" t="s">
+      <c r="C77" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D77" s="24" t="s">
+      <c r="D77" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E77" s="24"/>
-      <c r="F77" s="24"/>
-      <c r="G77" s="24"/>
-      <c r="H77" s="25" t="s">
+      <c r="E77" s="29"/>
+      <c r="F77" s="29"/>
+      <c r="G77" s="29"/>
+      <c r="H77" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="I77" s="25"/>
-      <c r="J77" s="25"/>
-      <c r="K77" s="25"/>
+      <c r="I77" s="30"/>
+      <c r="J77" s="30"/>
+      <c r="K77" s="30"/>
     </row>
     <row r="78" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A78" s="21"/>
-      <c r="B78" s="21"/>
-      <c r="C78" s="23"/>
+      <c r="A78" s="26"/>
+      <c r="B78" s="26"/>
+      <c r="C78" s="28"/>
       <c r="D78" s="3" t="s">
         <v>5</v>
       </c>
@@ -2645,32 +2870,32 @@
       <c r="G84" s="7"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A85" s="20" t="s">
+      <c r="A85" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B85" s="20" t="s">
+      <c r="B85" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C85" s="22" t="s">
+      <c r="C85" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D85" s="24" t="s">
+      <c r="D85" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E85" s="24"/>
-      <c r="F85" s="24"/>
-      <c r="G85" s="24"/>
-      <c r="H85" s="25" t="s">
+      <c r="E85" s="29"/>
+      <c r="F85" s="29"/>
+      <c r="G85" s="29"/>
+      <c r="H85" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="I85" s="25"/>
-      <c r="J85" s="25"/>
-      <c r="K85" s="25"/>
+      <c r="I85" s="30"/>
+      <c r="J85" s="30"/>
+      <c r="K85" s="30"/>
     </row>
     <row r="86" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A86" s="21"/>
-      <c r="B86" s="21"/>
-      <c r="C86" s="23"/>
+      <c r="A86" s="26"/>
+      <c r="B86" s="26"/>
+      <c r="C86" s="28"/>
       <c r="D86" s="3" t="s">
         <v>5</v>
       </c>
@@ -2790,32 +3015,32 @@
       <c r="G92" s="7"/>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A93" s="20" t="s">
+      <c r="A93" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B93" s="20" t="s">
+      <c r="B93" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C93" s="22" t="s">
+      <c r="C93" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D93" s="24" t="s">
+      <c r="D93" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E93" s="24"/>
-      <c r="F93" s="24"/>
-      <c r="G93" s="24"/>
-      <c r="H93" s="25" t="s">
+      <c r="E93" s="29"/>
+      <c r="F93" s="29"/>
+      <c r="G93" s="29"/>
+      <c r="H93" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="I93" s="25"/>
-      <c r="J93" s="25"/>
-      <c r="K93" s="25"/>
+      <c r="I93" s="30"/>
+      <c r="J93" s="30"/>
+      <c r="K93" s="30"/>
     </row>
     <row r="94" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A94" s="21"/>
-      <c r="B94" s="21"/>
-      <c r="C94" s="23"/>
+      <c r="A94" s="26"/>
+      <c r="B94" s="26"/>
+      <c r="C94" s="28"/>
       <c r="D94" s="3" t="s">
         <v>5</v>
       </c>

--- a/docs/BIGRAMA_GERAL.xlsx
+++ b/docs/BIGRAMA_GERAL.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="132">
   <si>
     <t>Experimento</t>
   </si>
@@ -333,6 +333,96 @@
   </si>
   <si>
     <t>AE_BIGRAMA_2L_OVER_03</t>
+  </si>
+  <si>
+    <t>[9216, 922, 9]</t>
+  </si>
+  <si>
+    <t>[9216, 1843, 9]</t>
+  </si>
+  <si>
+    <t>[9216, 2765, 9]</t>
+  </si>
+  <si>
+    <t>[9216, 3686, 9]</t>
+  </si>
+  <si>
+    <t>[9216, 4608, 9]</t>
+  </si>
+  <si>
+    <t>[9216, 5530, 9]</t>
+  </si>
+  <si>
+    <t>[9216, 6451, 9]</t>
+  </si>
+  <si>
+    <t>[9216, 7373, 9]</t>
+  </si>
+  <si>
+    <t>[9216, 8294, 9]</t>
+  </si>
+  <si>
+    <t>[9216, 9216, 9]</t>
+  </si>
+  <si>
+    <t>[9216, 10138, 9]</t>
+  </si>
+  <si>
+    <t>[9216, 11059, 9]</t>
+  </si>
+  <si>
+    <t>[9216, 11981, 9]</t>
+  </si>
+  <si>
+    <t>[9216, 12902, 9]</t>
+  </si>
+  <si>
+    <t>[9216, 13824, 9]</t>
+  </si>
+  <si>
+    <t>[9216, 14746, 9]</t>
+  </si>
+  <si>
+    <t>[9216, 15667, 9]</t>
+  </si>
+  <si>
+    <t>[9216, 16589, 9]</t>
+  </si>
+  <si>
+    <t>[9216, 17510, 9]</t>
+  </si>
+  <si>
+    <t>[9216, 18432, 9]</t>
+  </si>
+  <si>
+    <t>[9216, 5530, 4978, 9]</t>
+  </si>
+  <si>
+    <t>[9216, 10138, 9125, 9]</t>
+  </si>
+  <si>
+    <t>[9216, 13824, 12443, 9]</t>
+  </si>
+  <si>
+    <t>[9216, 14746, 13272, 9]</t>
+  </si>
+  <si>
+    <t>[9216, 15667, 14101, 9]</t>
+  </si>
+  <si>
+    <t>[9216, 5530, 4978, 4426,  9]</t>
+  </si>
+  <si>
+    <t>[9216, 10138, 9125, 8112, 9]</t>
+  </si>
+  <si>
+    <t>[9216, 13824, 12443, 11061, 9]</t>
+  </si>
+  <si>
+    <t>[9216, 14746, 13272, 11798, 9]</t>
+  </si>
+  <si>
+    <t>[9216, 15667, 14101, 12535, 9]</t>
   </si>
 </sst>
 </file>
@@ -487,7 +577,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -496,9 +586,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -533,6 +620,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -551,11 +643,6 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -878,72 +965,72 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="10"/>
-    <col min="2" max="2" width="113.5546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="13.44140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="10"/>
+    <col min="1" max="1" width="8.88671875" style="9"/>
+    <col min="2" max="2" width="113.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.44140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="9"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B3" s="11"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="13"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="12"/>
     </row>
     <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B4" s="11"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="13"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="12"/>
     </row>
     <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="19">
+      <c r="A5" s="18">
         <v>1</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="13"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="12"/>
     </row>
     <row r="6" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="19">
+      <c r="A6" s="18">
         <v>2</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="13"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="12"/>
     </row>
     <row r="7" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="19">
+      <c r="A7" s="18">
         <v>3</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="13"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="12"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C12" s="14"/>
+      <c r="C12" s="13"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C13" s="14"/>
+      <c r="C13" s="13"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C14" s="14"/>
+      <c r="C14" s="13"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C15" s="14"/>
+      <c r="C15" s="13"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C16" s="14"/>
+      <c r="C16" s="13"/>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C17" s="14"/>
+      <c r="C17" s="13"/>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C18" s="14"/>
+      <c r="C18" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -954,8 +1041,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2B1B422-5711-4894-8EC8-3356671E451B}">
   <dimension ref="A1:AD99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W7" zoomScale="91" workbookViewId="0">
-      <selection activeCell="Z23" sqref="Z23"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="91" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37:G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -993,47 +1080,47 @@
       <c r="O5" s="2">
         <v>0.6</v>
       </c>
-      <c r="P5" s="17">
+      <c r="P5" s="16">
         <v>1.1000000000000001</v>
       </c>
-      <c r="Q5" s="17">
+      <c r="Q5" s="16">
         <v>1.6</v>
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="29" t="s">
+      <c r="D6" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="30" t="s">
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="M6" s="31" t="s">
+      <c r="I6" s="32"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="32"/>
+      <c r="M6" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-      <c r="P6" s="31"/>
-      <c r="Q6" s="31"/>
+      <c r="N6" s="26"/>
+      <c r="O6" s="26"/>
+      <c r="P6" s="26"/>
+      <c r="Q6" s="26"/>
     </row>
     <row r="7" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="26"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="28"/>
+      <c r="A7" s="28"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="30"/>
       <c r="D7" s="3" t="s">
         <v>5</v>
       </c>
@@ -1067,37 +1154,39 @@
       <c r="O7" s="2">
         <v>9216</v>
       </c>
-      <c r="P7" s="17">
+      <c r="P7" s="16">
         <v>9216</v>
       </c>
-      <c r="Q7" s="17">
+      <c r="Q7" s="16">
         <v>9216</v>
       </c>
-      <c r="W7" s="23" t="s">
+      <c r="W7" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="X7" s="8">
+      <c r="X7" s="7">
         <v>0.83618680000000001</v>
       </c>
     </row>
     <row r="8" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7">
+      <c r="C8" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6">
         <v>0.71668430000000005</v>
       </c>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8">
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7">
         <v>0.83618680000000001</v>
       </c>
       <c r="M8" s="2">
@@ -1109,37 +1198,39 @@
       <c r="O8" s="2">
         <v>5530</v>
       </c>
-      <c r="P8" s="17">
+      <c r="P8" s="16">
         <v>10138</v>
       </c>
-      <c r="Q8" s="17">
+      <c r="Q8" s="16">
         <v>14746</v>
       </c>
-      <c r="W8" s="23" t="s">
+      <c r="W8" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="X8" s="22">
+      <c r="X8" s="21">
         <v>0.83734629999999999</v>
       </c>
     </row>
     <row r="9" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7">
+      <c r="C9" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6">
         <v>0.71591819999999995</v>
       </c>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="32">
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="24">
         <v>0.83734629999999999</v>
       </c>
       <c r="M9" s="2">
@@ -1151,37 +1242,39 @@
       <c r="O9" s="2">
         <v>4978</v>
       </c>
-      <c r="P9" s="17">
+      <c r="P9" s="16">
         <v>9125</v>
       </c>
-      <c r="Q9" s="17">
+      <c r="Q9" s="16">
         <v>13272</v>
       </c>
-      <c r="W9" s="23" t="s">
+      <c r="W9" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="X9" s="32">
+      <c r="X9" s="24">
         <v>0.83665959999999995</v>
       </c>
     </row>
     <row r="10" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7">
+      <c r="C10" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6">
         <v>0.7166131</v>
       </c>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="32">
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="24">
         <v>0.83665959999999995</v>
       </c>
       <c r="M10" s="2">
@@ -1193,37 +1286,39 @@
       <c r="O10" s="2">
         <v>4426</v>
       </c>
-      <c r="P10" s="17">
+      <c r="P10" s="16">
         <v>8112</v>
       </c>
-      <c r="Q10" s="17">
+      <c r="Q10" s="16">
         <v>11798</v>
       </c>
-      <c r="W10" s="16" t="s">
+      <c r="W10" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="X10" s="22">
+      <c r="X10" s="21">
         <v>0.83724600000000005</v>
       </c>
     </row>
     <row r="11" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="21"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9">
+      <c r="C11" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8">
         <v>0.7166131</v>
       </c>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="32">
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="24">
         <v>0.83724600000000005</v>
       </c>
       <c r="M11" s="2">
@@ -1235,37 +1330,39 @@
       <c r="O11" s="2">
         <v>3874</v>
       </c>
-      <c r="P11" s="17">
+      <c r="P11" s="16">
         <v>7099</v>
       </c>
-      <c r="Q11" s="17">
+      <c r="Q11" s="16">
         <v>10324</v>
       </c>
-      <c r="W11" s="23" t="s">
+      <c r="W11" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="X11" s="32">
+      <c r="X11" s="24">
         <v>0.83555539999999995</v>
       </c>
     </row>
     <row r="12" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7">
+      <c r="C12" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6">
         <v>0.7166131</v>
       </c>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="32">
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="24">
         <v>0.83555539999999995</v>
       </c>
       <c r="M12" s="2">
@@ -1277,37 +1374,39 @@
       <c r="O12" s="2">
         <v>3322</v>
       </c>
-      <c r="P12" s="17">
+      <c r="P12" s="16">
         <v>6086</v>
       </c>
-      <c r="Q12" s="17">
+      <c r="Q12" s="16">
         <v>8851</v>
       </c>
-      <c r="W12" s="23" t="s">
+      <c r="W12" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="X12" s="22">
+      <c r="X12" s="21">
         <v>0.83795830000000004</v>
       </c>
     </row>
     <row r="13" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7">
+      <c r="C13" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6">
         <v>0.71790109999999996</v>
       </c>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="32">
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="24">
         <v>0.83795830000000004</v>
       </c>
       <c r="M13" s="2">
@@ -1319,37 +1418,39 @@
       <c r="O13" s="2">
         <v>2770</v>
       </c>
-      <c r="P13" s="17">
+      <c r="P13" s="16">
         <v>5074</v>
       </c>
-      <c r="Q13" s="17">
+      <c r="Q13" s="16">
         <v>7378</v>
       </c>
-      <c r="W13" s="23" t="s">
+      <c r="W13" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="X13" s="32">
+      <c r="X13" s="24">
         <v>0.83634220000000004</v>
       </c>
     </row>
     <row r="14" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7">
+      <c r="C14" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6">
         <v>0.7196747</v>
       </c>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="32">
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="24">
         <v>0.83634220000000004</v>
       </c>
       <c r="M14" s="2">
@@ -1361,40 +1462,42 @@
       <c r="O14" s="2">
         <v>2217</v>
       </c>
-      <c r="P14" s="17">
+      <c r="P14" s="16">
         <v>4061</v>
       </c>
-      <c r="Q14" s="17">
+      <c r="Q14" s="16">
         <v>5904</v>
       </c>
-      <c r="W14" s="23" t="s">
+      <c r="W14" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="X14" s="32">
+      <c r="X14" s="24">
         <v>0.83528259999999999</v>
       </c>
-      <c r="AD14" s="16" t="s">
+      <c r="AD14" s="15" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7">
+      <c r="C15" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6">
         <v>0.71647360000000004</v>
       </c>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="32">
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="24">
         <v>0.83528259999999999</v>
       </c>
       <c r="M15" s="2">
@@ -1406,40 +1509,42 @@
       <c r="O15" s="2">
         <v>1665</v>
       </c>
-      <c r="P15" s="17">
+      <c r="P15" s="16">
         <v>3048</v>
       </c>
-      <c r="Q15" s="17">
+      <c r="Q15" s="16">
         <v>4430</v>
       </c>
-      <c r="W15" s="23" t="s">
+      <c r="W15" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="X15" s="32">
+      <c r="X15" s="24">
         <v>0.83638900000000005</v>
       </c>
-      <c r="AD15" s="16" t="s">
+      <c r="AD15" s="15" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="23" t="s">
+      <c r="A16" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7">
+      <c r="C16" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6">
         <v>0.72110220000000003</v>
       </c>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="32">
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="24">
         <v>0.83638900000000005</v>
       </c>
       <c r="M16" s="2">
@@ -1451,40 +1556,42 @@
       <c r="O16" s="2">
         <v>1113</v>
       </c>
-      <c r="P16" s="17">
+      <c r="P16" s="16">
         <v>2035</v>
       </c>
-      <c r="Q16" s="17">
+      <c r="Q16" s="16">
         <v>2956</v>
       </c>
-      <c r="W16" s="23" t="s">
+      <c r="W16" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="X16" s="32">
+      <c r="X16" s="24">
         <v>0.83698320000000004</v>
       </c>
-      <c r="AD16" s="16" t="s">
+      <c r="AD16" s="15" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7">
+      <c r="C17" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6">
         <v>0.71090109999999995</v>
       </c>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="32">
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="24">
         <v>0.83698320000000004</v>
       </c>
       <c r="M17" s="2">
@@ -1496,40 +1603,42 @@
       <c r="O17" s="2">
         <v>561</v>
       </c>
-      <c r="P17" s="17">
+      <c r="P17" s="16">
         <v>1022</v>
       </c>
-      <c r="Q17" s="17">
+      <c r="Q17" s="16">
         <v>1483</v>
       </c>
-      <c r="W17" s="23" t="s">
+      <c r="W17" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="X17" s="22">
+      <c r="X17" s="21">
         <v>0.83773739999999997</v>
       </c>
-      <c r="AD17" s="16" t="s">
+      <c r="AD17" s="15" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="23" t="s">
+      <c r="A18" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="24" t="s">
+      <c r="B18" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7">
+      <c r="C18" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6">
         <v>0.72095370000000003</v>
       </c>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="32">
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="24">
         <v>0.83773739999999997</v>
       </c>
       <c r="M18" s="2">
@@ -1541,334 +1650,352 @@
       <c r="O18" s="2">
         <v>9</v>
       </c>
-      <c r="P18" s="17">
+      <c r="P18" s="16">
         <v>9</v>
       </c>
-      <c r="Q18" s="17">
+      <c r="Q18" s="16">
         <v>9</v>
       </c>
-      <c r="W18" s="23" t="s">
+      <c r="W18" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="X18" s="32">
+      <c r="X18" s="24">
         <v>0.83568200000000004</v>
       </c>
-      <c r="AD18" s="16" t="s">
+      <c r="AD18" s="15" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="23" t="s">
+      <c r="A19" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="24" t="s">
+      <c r="B19" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7">
+      <c r="C19" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6">
         <v>0.71817122</v>
       </c>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="32">
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="24">
         <v>0.83568200000000004</v>
       </c>
-      <c r="W19" s="23" t="s">
+      <c r="W19" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="X19" s="22">
+      <c r="X19" s="21">
         <v>0.83716539999999995</v>
       </c>
     </row>
     <row r="20" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="23" t="s">
+      <c r="A20" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="B20" s="24" t="s">
+      <c r="B20" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7">
+      <c r="C20" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6">
         <v>0.71720655</v>
       </c>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="32">
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="24">
         <v>0.83716539999999995</v>
       </c>
-      <c r="W20" s="23" t="s">
+      <c r="W20" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="X20" s="32">
+      <c r="X20" s="24">
         <v>0.83637340000000004</v>
       </c>
-      <c r="AA20" s="33" t="s">
+      <c r="AA20" s="25" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="23" t="s">
+      <c r="A21" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="B21" s="24" t="s">
+      <c r="B21" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7">
+      <c r="C21" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6">
         <v>0.80799385000000001</v>
       </c>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="32">
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="24">
         <v>0.83637340000000004</v>
       </c>
-      <c r="W21" s="23" t="s">
+      <c r="W21" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="X21" s="22">
+      <c r="X21" s="21">
         <v>0.83815379999999995</v>
       </c>
-      <c r="Z21" s="16" t="s">
+      <c r="Z21" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="AA21" s="23" t="s">
+      <c r="AA21" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="AB21" s="22">
+      <c r="AB21" s="21">
         <v>0.83844677000000001</v>
       </c>
     </row>
     <row r="22" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="23" t="s">
+      <c r="A22" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="B22" s="24" t="s">
+      <c r="B22" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7">
+      <c r="C22" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6">
         <v>0.80329322000000003</v>
       </c>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="32">
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="24">
         <v>0.83815379999999995</v>
       </c>
-      <c r="W22" s="23" t="s">
+      <c r="W22" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="X22" s="22">
+      <c r="X22" s="21">
         <v>0.83748688000000004</v>
       </c>
-      <c r="Z22" s="16" t="s">
+      <c r="Z22" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="AA22" s="23" t="s">
+      <c r="AA22" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="AB22" s="22">
+      <c r="AB22" s="21">
         <v>0.83815379999999995</v>
       </c>
     </row>
     <row r="23" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="23" t="s">
+      <c r="A23" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="B23" s="24" t="s">
+      <c r="B23" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7">
+      <c r="C23" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6">
         <v>0.72110022200000001</v>
       </c>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="32">
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="24">
         <v>0.83748688000000004</v>
       </c>
-      <c r="W23" s="23" t="s">
+      <c r="W23" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="X23" s="22">
+      <c r="X23" s="21">
         <v>0.83844677000000001</v>
       </c>
-      <c r="Z23" s="16" t="s">
+      <c r="Z23" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="AA23" s="23" t="s">
+      <c r="AA23" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="AB23" s="22">
+      <c r="AB23" s="21">
         <v>0.83795830000000004</v>
       </c>
     </row>
     <row r="24" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="23" t="s">
+      <c r="A24" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="B24" s="24" t="s">
+      <c r="B24" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7">
+      <c r="C24" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6">
         <v>0.72601133299999998</v>
       </c>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="32">
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="24">
         <v>0.83844677000000001</v>
       </c>
-      <c r="W24" s="23" t="s">
+      <c r="W24" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="X24" s="32">
+      <c r="X24" s="24">
         <v>0.83622465999999995</v>
       </c>
-      <c r="Z24" s="16" t="s">
+      <c r="Z24" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="AA24" s="23" t="s">
+      <c r="AA24" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="AB24" s="22">
+      <c r="AB24" s="21">
         <v>0.83773739999999997</v>
       </c>
     </row>
     <row r="25" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="23" t="s">
+      <c r="A25" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="B25" s="24" t="s">
+      <c r="B25" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7">
+      <c r="C25" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6">
         <v>0.72110222199999996</v>
       </c>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="32">
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="24">
         <v>0.83622465999999995</v>
       </c>
-      <c r="W25" s="23" t="s">
+      <c r="W25" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="X25" s="32">
+      <c r="X25" s="24">
         <v>0.83633111000000004</v>
       </c>
-      <c r="Z25" s="16" t="s">
+      <c r="Z25" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="AA25" s="23" t="s">
+      <c r="AA25" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="AB25" s="22">
+      <c r="AB25" s="21">
         <v>0.83748688000000004</v>
       </c>
     </row>
     <row r="26" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="23" t="s">
+      <c r="A26" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="B26" s="24" t="s">
+      <c r="B26" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="6"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7">
+      <c r="C26" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6">
         <v>0.71775266000000004</v>
       </c>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="32">
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="24">
         <v>0.83633111000000004</v>
       </c>
-      <c r="W26" s="23" t="s">
+      <c r="W26" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="X26" s="32">
+      <c r="X26" s="24">
         <v>0.83674999999999999</v>
       </c>
     </row>
     <row r="27" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="23" t="s">
+      <c r="A27" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="B27" s="24" t="s">
+      <c r="B27" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="6"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7">
+      <c r="C27" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6">
         <v>0.72351500000000002</v>
       </c>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="32">
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="24">
         <v>0.83674999999999999</v>
       </c>
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A29" s="25" t="s">
+      <c r="A29" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B29" s="25" t="s">
+      <c r="B29" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C29" s="27" t="s">
+      <c r="C29" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D29" s="29" t="s">
+      <c r="D29" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="30" t="s">
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="I29" s="30"/>
-      <c r="J29" s="30"/>
-      <c r="K29" s="30"/>
+      <c r="I29" s="32"/>
+      <c r="J29" s="32"/>
+      <c r="K29" s="32"/>
     </row>
     <row r="30" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="26"/>
-      <c r="B30" s="26"/>
-      <c r="C30" s="28"/>
+      <c r="A30" s="28"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="30"/>
       <c r="D30" s="3" t="s">
         <v>5</v>
       </c>
@@ -1895,130 +2022,140 @@
       </c>
     </row>
     <row r="31" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="16" t="s">
+      <c r="A31" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="B31" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C31" s="15"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
+      <c r="B31" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
     </row>
     <row r="32" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="16" t="s">
+      <c r="A32" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="B32" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C32" s="15"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
+      <c r="B32" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
     </row>
     <row r="33" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A33" s="16" t="s">
+      <c r="A33" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="B33" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C33" s="15"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
+      <c r="B33" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
     </row>
     <row r="34" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A34" s="16" t="s">
+      <c r="A34" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="B34" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C34" s="15"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="8"/>
-      <c r="K34" s="8"/>
+      <c r="B34" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
     </row>
     <row r="35" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A35" s="16" t="s">
+      <c r="A35" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="B35" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C35" s="15"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="8"/>
+      <c r="B35" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
     </row>
     <row r="36" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="5"/>
-      <c r="B36" s="15"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="8"/>
-      <c r="K36" s="8"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A37" s="25" t="s">
+      <c r="A37" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B37" s="25" t="s">
+      <c r="B37" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C37" s="27" t="s">
+      <c r="C37" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D37" s="29" t="s">
+      <c r="D37" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="E37" s="29"/>
-      <c r="F37" s="29"/>
-      <c r="G37" s="29"/>
-      <c r="H37" s="30" t="s">
+      <c r="E37" s="31"/>
+      <c r="F37" s="31"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="I37" s="30"/>
-      <c r="J37" s="30"/>
-      <c r="K37" s="30"/>
+      <c r="I37" s="32"/>
+      <c r="J37" s="32"/>
+      <c r="K37" s="32"/>
     </row>
     <row r="38" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A38" s="26"/>
-      <c r="B38" s="26"/>
-      <c r="C38" s="28"/>
+      <c r="A38" s="28"/>
+      <c r="B38" s="28"/>
+      <c r="C38" s="30"/>
       <c r="D38" s="3" t="s">
         <v>5</v>
       </c>
@@ -2045,132 +2182,142 @@
       </c>
     </row>
     <row r="39" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A39" s="16" t="s">
+      <c r="A39" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="B39" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C39" s="15"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="8"/>
-      <c r="I39" s="8"/>
-      <c r="J39" s="8"/>
-      <c r="K39" s="8"/>
+      <c r="B39" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
     </row>
     <row r="40" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A40" s="16" t="s">
+      <c r="A40" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="B40" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C40" s="15"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="8"/>
-      <c r="J40" s="8"/>
-      <c r="K40" s="8"/>
+      <c r="B40" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
     </row>
     <row r="41" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A41" s="16" t="s">
+      <c r="A41" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="B41" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C41" s="15"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="8"/>
-      <c r="I41" s="8"/>
-      <c r="J41" s="8"/>
-      <c r="K41" s="8"/>
+      <c r="B41" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="7"/>
     </row>
     <row r="42" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A42" s="16" t="s">
+      <c r="A42" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="B42" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C42" s="15"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="8"/>
-      <c r="I42" s="8"/>
-      <c r="J42" s="8"/>
-      <c r="K42" s="8"/>
+      <c r="B42" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="7"/>
     </row>
     <row r="43" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A43" s="16" t="s">
+      <c r="A43" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="B43" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C43" s="15"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="8"/>
-      <c r="J43" s="8"/>
-      <c r="K43" s="8"/>
+      <c r="B43" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C43" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="7"/>
     </row>
     <row r="44" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="5"/>
-      <c r="B44" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C44" s="15"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="8"/>
-      <c r="I44" s="8"/>
-      <c r="J44" s="8"/>
-      <c r="K44" s="8"/>
+      <c r="B44" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C44" s="14"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="7"/>
+      <c r="K44" s="7"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A45" s="25" t="s">
+      <c r="A45" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B45" s="25" t="s">
+      <c r="B45" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C45" s="27" t="s">
+      <c r="C45" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D45" s="29" t="s">
+      <c r="D45" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="E45" s="29"/>
-      <c r="F45" s="29"/>
-      <c r="G45" s="29"/>
-      <c r="H45" s="30" t="s">
+      <c r="E45" s="31"/>
+      <c r="F45" s="31"/>
+      <c r="G45" s="31"/>
+      <c r="H45" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="I45" s="30"/>
-      <c r="J45" s="30"/>
-      <c r="K45" s="30"/>
+      <c r="I45" s="32"/>
+      <c r="J45" s="32"/>
+      <c r="K45" s="32"/>
     </row>
     <row r="46" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A46" s="26"/>
-      <c r="B46" s="26"/>
-      <c r="C46" s="28"/>
+      <c r="A46" s="28"/>
+      <c r="B46" s="28"/>
+      <c r="C46" s="30"/>
       <c r="D46" s="3" t="s">
         <v>5</v>
       </c>
@@ -2197,125 +2344,125 @@
       </c>
     </row>
     <row r="47" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A47" s="16" t="s">
+      <c r="A47" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="B47" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C47" s="15"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="8"/>
-      <c r="I47" s="8"/>
-      <c r="J47" s="8"/>
-      <c r="K47" s="8"/>
+      <c r="B47" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C47" s="14"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7"/>
+      <c r="K47" s="7"/>
     </row>
     <row r="48" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A48" s="16" t="s">
+      <c r="A48" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="B48" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C48" s="15"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="7"/>
-      <c r="H48" s="8"/>
-      <c r="I48" s="8"/>
-      <c r="J48" s="8"/>
-      <c r="K48" s="8"/>
+      <c r="B48" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C48" s="14"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="7"/>
+      <c r="J48" s="7"/>
+      <c r="K48" s="7"/>
     </row>
     <row r="49" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A49" s="16" t="s">
+      <c r="A49" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="B49" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C49" s="15"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="7"/>
-      <c r="G49" s="7"/>
-      <c r="H49" s="8"/>
-      <c r="I49" s="8"/>
-      <c r="J49" s="8"/>
-      <c r="K49" s="8"/>
+      <c r="B49" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C49" s="14"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="7"/>
+      <c r="J49" s="7"/>
+      <c r="K49" s="7"/>
     </row>
     <row r="50" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A50" s="16" t="s">
+      <c r="A50" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="B50" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C50" s="15"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="7"/>
-      <c r="F50" s="7"/>
-      <c r="G50" s="7"/>
-      <c r="H50" s="8"/>
-      <c r="I50" s="8"/>
-      <c r="J50" s="8"/>
-      <c r="K50" s="8"/>
+      <c r="B50" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C50" s="14"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="7"/>
+      <c r="J50" s="7"/>
+      <c r="K50" s="7"/>
     </row>
     <row r="51" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A51" s="16" t="s">
+      <c r="A51" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="B51" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C51" s="15"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="7"/>
-      <c r="H51" s="8"/>
-      <c r="I51" s="8"/>
-      <c r="J51" s="8"/>
-      <c r="K51" s="8"/>
+      <c r="B51" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C51" s="14"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="7"/>
+      <c r="J51" s="7"/>
+      <c r="K51" s="7"/>
     </row>
     <row r="52" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B52" s="15"/>
-      <c r="C52" s="15"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="7"/>
-      <c r="F52" s="7"/>
-      <c r="G52" s="7"/>
+      <c r="B52" s="14"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A53" s="25" t="s">
+      <c r="A53" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B53" s="25" t="s">
+      <c r="B53" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C53" s="27" t="s">
+      <c r="C53" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D53" s="29" t="s">
+      <c r="D53" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="E53" s="29"/>
-      <c r="F53" s="29"/>
-      <c r="G53" s="29"/>
-      <c r="H53" s="30" t="s">
+      <c r="E53" s="31"/>
+      <c r="F53" s="31"/>
+      <c r="G53" s="31"/>
+      <c r="H53" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="I53" s="30"/>
-      <c r="J53" s="30"/>
-      <c r="K53" s="30"/>
+      <c r="I53" s="32"/>
+      <c r="J53" s="32"/>
+      <c r="K53" s="32"/>
     </row>
     <row r="54" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A54" s="26"/>
-      <c r="B54" s="26"/>
-      <c r="C54" s="28"/>
+      <c r="A54" s="28"/>
+      <c r="B54" s="28"/>
+      <c r="C54" s="30"/>
       <c r="D54" s="3" t="s">
         <v>5</v>
       </c>
@@ -2342,125 +2489,125 @@
       </c>
     </row>
     <row r="55" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A55" s="16" t="s">
+      <c r="A55" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="B55" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C55" s="15"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="7"/>
-      <c r="G55" s="7"/>
-      <c r="H55" s="8"/>
-      <c r="I55" s="8"/>
-      <c r="J55" s="8"/>
-      <c r="K55" s="8"/>
+      <c r="B55" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C55" s="14"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="7"/>
+      <c r="J55" s="7"/>
+      <c r="K55" s="7"/>
     </row>
     <row r="56" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A56" s="16" t="s">
+      <c r="A56" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="B56" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C56" s="15"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="7"/>
-      <c r="F56" s="7"/>
-      <c r="G56" s="7"/>
-      <c r="H56" s="8"/>
-      <c r="I56" s="8"/>
-      <c r="J56" s="8"/>
-      <c r="K56" s="8"/>
+      <c r="B56" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C56" s="14"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="7"/>
+      <c r="I56" s="7"/>
+      <c r="J56" s="7"/>
+      <c r="K56" s="7"/>
     </row>
     <row r="57" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A57" s="16" t="s">
+      <c r="A57" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="B57" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C57" s="15"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="7"/>
-      <c r="F57" s="7"/>
-      <c r="G57" s="7"/>
-      <c r="H57" s="8"/>
-      <c r="I57" s="8"/>
-      <c r="J57" s="8"/>
-      <c r="K57" s="8"/>
+      <c r="B57" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C57" s="14"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="7"/>
+      <c r="I57" s="7"/>
+      <c r="J57" s="7"/>
+      <c r="K57" s="7"/>
     </row>
     <row r="58" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A58" s="16" t="s">
+      <c r="A58" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="B58" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C58" s="15"/>
-      <c r="D58" s="7"/>
-      <c r="E58" s="7"/>
-      <c r="F58" s="7"/>
-      <c r="G58" s="7"/>
-      <c r="H58" s="8"/>
-      <c r="I58" s="8"/>
-      <c r="J58" s="8"/>
-      <c r="K58" s="8"/>
+      <c r="B58" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C58" s="14"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6"/>
+      <c r="H58" s="7"/>
+      <c r="I58" s="7"/>
+      <c r="J58" s="7"/>
+      <c r="K58" s="7"/>
     </row>
     <row r="59" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A59" s="16" t="s">
+      <c r="A59" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="B59" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C59" s="15"/>
-      <c r="D59" s="7"/>
-      <c r="E59" s="7"/>
-      <c r="F59" s="7"/>
-      <c r="G59" s="7"/>
-      <c r="H59" s="8"/>
-      <c r="I59" s="8"/>
-      <c r="J59" s="8"/>
-      <c r="K59" s="8"/>
+      <c r="B59" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C59" s="14"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="6"/>
+      <c r="H59" s="7"/>
+      <c r="I59" s="7"/>
+      <c r="J59" s="7"/>
+      <c r="K59" s="7"/>
     </row>
     <row r="60" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B60" s="15"/>
-      <c r="C60" s="15"/>
-      <c r="D60" s="7"/>
-      <c r="E60" s="7"/>
-      <c r="F60" s="7"/>
-      <c r="G60" s="7"/>
+      <c r="B60" s="14"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="6"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A61" s="25" t="s">
+      <c r="A61" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B61" s="25" t="s">
+      <c r="B61" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C61" s="27" t="s">
+      <c r="C61" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D61" s="29" t="s">
+      <c r="D61" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="E61" s="29"/>
-      <c r="F61" s="29"/>
-      <c r="G61" s="29"/>
-      <c r="H61" s="30" t="s">
+      <c r="E61" s="31"/>
+      <c r="F61" s="31"/>
+      <c r="G61" s="31"/>
+      <c r="H61" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="I61" s="30"/>
-      <c r="J61" s="30"/>
-      <c r="K61" s="30"/>
+      <c r="I61" s="32"/>
+      <c r="J61" s="32"/>
+      <c r="K61" s="32"/>
     </row>
     <row r="62" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A62" s="26"/>
-      <c r="B62" s="26"/>
-      <c r="C62" s="28"/>
+      <c r="A62" s="28"/>
+      <c r="B62" s="28"/>
+      <c r="C62" s="30"/>
       <c r="D62" s="3" t="s">
         <v>5</v>
       </c>
@@ -2487,125 +2634,125 @@
       </c>
     </row>
     <row r="63" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A63" s="16" t="s">
+      <c r="A63" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="B63" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C63" s="15"/>
-      <c r="D63" s="7"/>
-      <c r="E63" s="7"/>
-      <c r="F63" s="7"/>
-      <c r="G63" s="7"/>
-      <c r="H63" s="8"/>
-      <c r="I63" s="8"/>
-      <c r="J63" s="8"/>
-      <c r="K63" s="8"/>
+      <c r="B63" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C63" s="14"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="6"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="6"/>
+      <c r="H63" s="7"/>
+      <c r="I63" s="7"/>
+      <c r="J63" s="7"/>
+      <c r="K63" s="7"/>
     </row>
     <row r="64" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A64" s="16" t="s">
+      <c r="A64" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="B64" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C64" s="15"/>
-      <c r="D64" s="7"/>
-      <c r="E64" s="7"/>
-      <c r="F64" s="7"/>
-      <c r="G64" s="7"/>
-      <c r="H64" s="8"/>
-      <c r="I64" s="8"/>
-      <c r="J64" s="8"/>
-      <c r="K64" s="8"/>
+      <c r="B64" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C64" s="14"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="6"/>
+      <c r="F64" s="6"/>
+      <c r="G64" s="6"/>
+      <c r="H64" s="7"/>
+      <c r="I64" s="7"/>
+      <c r="J64" s="7"/>
+      <c r="K64" s="7"/>
     </row>
     <row r="65" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A65" s="16" t="s">
+      <c r="A65" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="B65" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C65" s="15"/>
-      <c r="D65" s="7"/>
-      <c r="E65" s="7"/>
-      <c r="F65" s="7"/>
-      <c r="G65" s="7"/>
-      <c r="H65" s="8"/>
-      <c r="I65" s="8"/>
-      <c r="J65" s="8"/>
-      <c r="K65" s="8"/>
+      <c r="B65" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C65" s="14"/>
+      <c r="D65" s="6"/>
+      <c r="E65" s="6"/>
+      <c r="F65" s="6"/>
+      <c r="G65" s="6"/>
+      <c r="H65" s="7"/>
+      <c r="I65" s="7"/>
+      <c r="J65" s="7"/>
+      <c r="K65" s="7"/>
     </row>
     <row r="66" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A66" s="16" t="s">
+      <c r="A66" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="B66" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C66" s="15"/>
-      <c r="D66" s="7"/>
-      <c r="E66" s="7"/>
-      <c r="F66" s="7"/>
-      <c r="G66" s="7"/>
-      <c r="H66" s="8"/>
-      <c r="I66" s="8"/>
-      <c r="J66" s="8"/>
-      <c r="K66" s="8"/>
+      <c r="B66" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C66" s="14"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="6"/>
+      <c r="F66" s="6"/>
+      <c r="G66" s="6"/>
+      <c r="H66" s="7"/>
+      <c r="I66" s="7"/>
+      <c r="J66" s="7"/>
+      <c r="K66" s="7"/>
     </row>
     <row r="67" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A67" s="16" t="s">
+      <c r="A67" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="B67" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C67" s="15"/>
-      <c r="D67" s="7"/>
-      <c r="E67" s="7"/>
-      <c r="F67" s="7"/>
-      <c r="G67" s="7"/>
-      <c r="H67" s="8"/>
-      <c r="I67" s="8"/>
-      <c r="J67" s="8"/>
-      <c r="K67" s="8"/>
+      <c r="B67" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C67" s="14"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="6"/>
+      <c r="F67" s="6"/>
+      <c r="G67" s="6"/>
+      <c r="H67" s="7"/>
+      <c r="I67" s="7"/>
+      <c r="J67" s="7"/>
+      <c r="K67" s="7"/>
     </row>
     <row r="68" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B68" s="15"/>
-      <c r="C68" s="15"/>
-      <c r="D68" s="7"/>
-      <c r="E68" s="7"/>
-      <c r="F68" s="7"/>
-      <c r="G68" s="7"/>
+      <c r="B68" s="14"/>
+      <c r="C68" s="14"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="6"/>
+      <c r="F68" s="6"/>
+      <c r="G68" s="6"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A69" s="25" t="s">
+      <c r="A69" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B69" s="25" t="s">
+      <c r="B69" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C69" s="27" t="s">
+      <c r="C69" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D69" s="29" t="s">
+      <c r="D69" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="E69" s="29"/>
-      <c r="F69" s="29"/>
-      <c r="G69" s="29"/>
-      <c r="H69" s="30" t="s">
+      <c r="E69" s="31"/>
+      <c r="F69" s="31"/>
+      <c r="G69" s="31"/>
+      <c r="H69" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="I69" s="30"/>
-      <c r="J69" s="30"/>
-      <c r="K69" s="30"/>
+      <c r="I69" s="32"/>
+      <c r="J69" s="32"/>
+      <c r="K69" s="32"/>
     </row>
     <row r="70" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A70" s="26"/>
-      <c r="B70" s="26"/>
-      <c r="C70" s="28"/>
+      <c r="A70" s="28"/>
+      <c r="B70" s="28"/>
+      <c r="C70" s="30"/>
       <c r="D70" s="3" t="s">
         <v>5</v>
       </c>
@@ -2632,125 +2779,125 @@
       </c>
     </row>
     <row r="71" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A71" s="16" t="s">
+      <c r="A71" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="B71" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C71" s="15"/>
-      <c r="D71" s="7"/>
-      <c r="E71" s="7"/>
-      <c r="F71" s="7"/>
-      <c r="G71" s="7"/>
-      <c r="H71" s="8"/>
-      <c r="I71" s="8"/>
-      <c r="J71" s="8"/>
-      <c r="K71" s="8"/>
+      <c r="B71" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C71" s="14"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="6"/>
+      <c r="F71" s="6"/>
+      <c r="G71" s="6"/>
+      <c r="H71" s="7"/>
+      <c r="I71" s="7"/>
+      <c r="J71" s="7"/>
+      <c r="K71" s="7"/>
     </row>
     <row r="72" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A72" s="16" t="s">
+      <c r="A72" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="B72" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C72" s="15"/>
-      <c r="D72" s="7"/>
-      <c r="E72" s="7"/>
-      <c r="F72" s="7"/>
-      <c r="G72" s="7"/>
-      <c r="H72" s="8"/>
-      <c r="I72" s="8"/>
-      <c r="J72" s="8"/>
-      <c r="K72" s="8"/>
+      <c r="B72" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C72" s="14"/>
+      <c r="D72" s="6"/>
+      <c r="E72" s="6"/>
+      <c r="F72" s="6"/>
+      <c r="G72" s="6"/>
+      <c r="H72" s="7"/>
+      <c r="I72" s="7"/>
+      <c r="J72" s="7"/>
+      <c r="K72" s="7"/>
     </row>
     <row r="73" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A73" s="16" t="s">
+      <c r="A73" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="B73" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C73" s="15"/>
-      <c r="D73" s="7"/>
-      <c r="E73" s="7"/>
-      <c r="F73" s="7"/>
-      <c r="G73" s="7"/>
-      <c r="H73" s="8"/>
-      <c r="I73" s="8"/>
-      <c r="J73" s="8"/>
-      <c r="K73" s="8"/>
+      <c r="B73" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C73" s="14"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="6"/>
+      <c r="F73" s="6"/>
+      <c r="G73" s="6"/>
+      <c r="H73" s="7"/>
+      <c r="I73" s="7"/>
+      <c r="J73" s="7"/>
+      <c r="K73" s="7"/>
     </row>
     <row r="74" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A74" s="16" t="s">
+      <c r="A74" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="B74" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C74" s="15"/>
-      <c r="D74" s="7"/>
-      <c r="E74" s="7"/>
-      <c r="F74" s="7"/>
-      <c r="G74" s="7"/>
-      <c r="H74" s="8"/>
-      <c r="I74" s="8"/>
-      <c r="J74" s="8"/>
-      <c r="K74" s="8"/>
+      <c r="B74" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C74" s="14"/>
+      <c r="D74" s="6"/>
+      <c r="E74" s="6"/>
+      <c r="F74" s="6"/>
+      <c r="G74" s="6"/>
+      <c r="H74" s="7"/>
+      <c r="I74" s="7"/>
+      <c r="J74" s="7"/>
+      <c r="K74" s="7"/>
     </row>
     <row r="75" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A75" s="16" t="s">
+      <c r="A75" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="B75" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C75" s="15"/>
-      <c r="D75" s="7"/>
-      <c r="E75" s="7"/>
-      <c r="F75" s="7"/>
-      <c r="G75" s="7"/>
-      <c r="H75" s="8"/>
-      <c r="I75" s="8"/>
-      <c r="J75" s="8"/>
-      <c r="K75" s="8"/>
+      <c r="B75" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C75" s="14"/>
+      <c r="D75" s="6"/>
+      <c r="E75" s="6"/>
+      <c r="F75" s="6"/>
+      <c r="G75" s="6"/>
+      <c r="H75" s="7"/>
+      <c r="I75" s="7"/>
+      <c r="J75" s="7"/>
+      <c r="K75" s="7"/>
     </row>
     <row r="76" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B76" s="15"/>
-      <c r="C76" s="15"/>
-      <c r="D76" s="7"/>
-      <c r="E76" s="7"/>
-      <c r="F76" s="7"/>
-      <c r="G76" s="7"/>
+      <c r="B76" s="14"/>
+      <c r="C76" s="14"/>
+      <c r="D76" s="6"/>
+      <c r="E76" s="6"/>
+      <c r="F76" s="6"/>
+      <c r="G76" s="6"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A77" s="25" t="s">
+      <c r="A77" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B77" s="25" t="s">
+      <c r="B77" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C77" s="27" t="s">
+      <c r="C77" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D77" s="29" t="s">
+      <c r="D77" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="E77" s="29"/>
-      <c r="F77" s="29"/>
-      <c r="G77" s="29"/>
-      <c r="H77" s="30" t="s">
+      <c r="E77" s="31"/>
+      <c r="F77" s="31"/>
+      <c r="G77" s="31"/>
+      <c r="H77" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="I77" s="30"/>
-      <c r="J77" s="30"/>
-      <c r="K77" s="30"/>
+      <c r="I77" s="32"/>
+      <c r="J77" s="32"/>
+      <c r="K77" s="32"/>
     </row>
     <row r="78" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A78" s="26"/>
-      <c r="B78" s="26"/>
-      <c r="C78" s="28"/>
+      <c r="A78" s="28"/>
+      <c r="B78" s="28"/>
+      <c r="C78" s="30"/>
       <c r="D78" s="3" t="s">
         <v>5</v>
       </c>
@@ -2777,125 +2924,125 @@
       </c>
     </row>
     <row r="79" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A79" s="16" t="s">
+      <c r="A79" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="B79" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C79" s="15"/>
-      <c r="D79" s="7"/>
-      <c r="E79" s="7"/>
-      <c r="F79" s="7"/>
-      <c r="G79" s="7"/>
-      <c r="H79" s="8"/>
-      <c r="I79" s="8"/>
-      <c r="J79" s="8"/>
-      <c r="K79" s="8"/>
+      <c r="B79" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C79" s="14"/>
+      <c r="D79" s="6"/>
+      <c r="E79" s="6"/>
+      <c r="F79" s="6"/>
+      <c r="G79" s="6"/>
+      <c r="H79" s="7"/>
+      <c r="I79" s="7"/>
+      <c r="J79" s="7"/>
+      <c r="K79" s="7"/>
     </row>
     <row r="80" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A80" s="16" t="s">
+      <c r="A80" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="B80" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C80" s="15"/>
-      <c r="D80" s="7"/>
-      <c r="E80" s="7"/>
-      <c r="F80" s="7"/>
-      <c r="G80" s="7"/>
-      <c r="H80" s="8"/>
-      <c r="I80" s="8"/>
-      <c r="J80" s="8"/>
-      <c r="K80" s="8"/>
+      <c r="B80" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C80" s="14"/>
+      <c r="D80" s="6"/>
+      <c r="E80" s="6"/>
+      <c r="F80" s="6"/>
+      <c r="G80" s="6"/>
+      <c r="H80" s="7"/>
+      <c r="I80" s="7"/>
+      <c r="J80" s="7"/>
+      <c r="K80" s="7"/>
     </row>
     <row r="81" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A81" s="16" t="s">
+      <c r="A81" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="B81" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C81" s="15"/>
-      <c r="D81" s="7"/>
-      <c r="E81" s="7"/>
-      <c r="F81" s="7"/>
-      <c r="G81" s="7"/>
-      <c r="H81" s="8"/>
-      <c r="I81" s="8"/>
-      <c r="J81" s="8"/>
-      <c r="K81" s="8"/>
+      <c r="B81" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C81" s="14"/>
+      <c r="D81" s="6"/>
+      <c r="E81" s="6"/>
+      <c r="F81" s="6"/>
+      <c r="G81" s="6"/>
+      <c r="H81" s="7"/>
+      <c r="I81" s="7"/>
+      <c r="J81" s="7"/>
+      <c r="K81" s="7"/>
     </row>
     <row r="82" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A82" s="16" t="s">
+      <c r="A82" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="B82" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C82" s="15"/>
-      <c r="D82" s="7"/>
-      <c r="E82" s="7"/>
-      <c r="F82" s="7"/>
-      <c r="G82" s="7"/>
-      <c r="H82" s="8"/>
-      <c r="I82" s="8"/>
-      <c r="J82" s="8"/>
-      <c r="K82" s="8"/>
+      <c r="B82" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C82" s="14"/>
+      <c r="D82" s="6"/>
+      <c r="E82" s="6"/>
+      <c r="F82" s="6"/>
+      <c r="G82" s="6"/>
+      <c r="H82" s="7"/>
+      <c r="I82" s="7"/>
+      <c r="J82" s="7"/>
+      <c r="K82" s="7"/>
     </row>
     <row r="83" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A83" s="16" t="s">
+      <c r="A83" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="B83" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C83" s="15"/>
-      <c r="D83" s="7"/>
-      <c r="E83" s="7"/>
-      <c r="F83" s="7"/>
-      <c r="G83" s="7"/>
-      <c r="H83" s="8"/>
-      <c r="I83" s="8"/>
-      <c r="J83" s="8"/>
-      <c r="K83" s="8"/>
+      <c r="B83" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C83" s="14"/>
+      <c r="D83" s="6"/>
+      <c r="E83" s="6"/>
+      <c r="F83" s="6"/>
+      <c r="G83" s="6"/>
+      <c r="H83" s="7"/>
+      <c r="I83" s="7"/>
+      <c r="J83" s="7"/>
+      <c r="K83" s="7"/>
     </row>
     <row r="84" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B84" s="15"/>
-      <c r="C84" s="15"/>
-      <c r="D84" s="7"/>
-      <c r="E84" s="7"/>
-      <c r="F84" s="7"/>
-      <c r="G84" s="7"/>
+      <c r="B84" s="14"/>
+      <c r="C84" s="14"/>
+      <c r="D84" s="6"/>
+      <c r="E84" s="6"/>
+      <c r="F84" s="6"/>
+      <c r="G84" s="6"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A85" s="25" t="s">
+      <c r="A85" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B85" s="25" t="s">
+      <c r="B85" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C85" s="27" t="s">
+      <c r="C85" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D85" s="29" t="s">
+      <c r="D85" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="E85" s="29"/>
-      <c r="F85" s="29"/>
-      <c r="G85" s="29"/>
-      <c r="H85" s="30" t="s">
+      <c r="E85" s="31"/>
+      <c r="F85" s="31"/>
+      <c r="G85" s="31"/>
+      <c r="H85" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="I85" s="30"/>
-      <c r="J85" s="30"/>
-      <c r="K85" s="30"/>
+      <c r="I85" s="32"/>
+      <c r="J85" s="32"/>
+      <c r="K85" s="32"/>
     </row>
     <row r="86" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A86" s="26"/>
-      <c r="B86" s="26"/>
-      <c r="C86" s="28"/>
+      <c r="A86" s="28"/>
+      <c r="B86" s="28"/>
+      <c r="C86" s="30"/>
       <c r="D86" s="3" t="s">
         <v>5</v>
       </c>
@@ -2922,125 +3069,125 @@
       </c>
     </row>
     <row r="87" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A87" s="16" t="s">
+      <c r="A87" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="B87" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C87" s="15"/>
-      <c r="D87" s="7"/>
-      <c r="E87" s="7"/>
-      <c r="F87" s="7"/>
-      <c r="G87" s="7"/>
-      <c r="H87" s="8"/>
-      <c r="I87" s="8"/>
-      <c r="J87" s="8"/>
-      <c r="K87" s="8"/>
+      <c r="B87" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C87" s="14"/>
+      <c r="D87" s="6"/>
+      <c r="E87" s="6"/>
+      <c r="F87" s="6"/>
+      <c r="G87" s="6"/>
+      <c r="H87" s="7"/>
+      <c r="I87" s="7"/>
+      <c r="J87" s="7"/>
+      <c r="K87" s="7"/>
     </row>
     <row r="88" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A88" s="16" t="s">
+      <c r="A88" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="B88" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C88" s="15"/>
-      <c r="D88" s="7"/>
-      <c r="E88" s="7"/>
-      <c r="F88" s="7"/>
-      <c r="G88" s="7"/>
-      <c r="H88" s="8"/>
-      <c r="I88" s="8"/>
-      <c r="J88" s="8"/>
-      <c r="K88" s="8"/>
+      <c r="B88" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C88" s="14"/>
+      <c r="D88" s="6"/>
+      <c r="E88" s="6"/>
+      <c r="F88" s="6"/>
+      <c r="G88" s="6"/>
+      <c r="H88" s="7"/>
+      <c r="I88" s="7"/>
+      <c r="J88" s="7"/>
+      <c r="K88" s="7"/>
     </row>
     <row r="89" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A89" s="16" t="s">
+      <c r="A89" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="B89" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C89" s="15"/>
-      <c r="D89" s="7"/>
-      <c r="E89" s="7"/>
-      <c r="F89" s="7"/>
-      <c r="G89" s="7"/>
-      <c r="H89" s="8"/>
-      <c r="I89" s="8"/>
-      <c r="J89" s="8"/>
-      <c r="K89" s="8"/>
+      <c r="B89" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C89" s="14"/>
+      <c r="D89" s="6"/>
+      <c r="E89" s="6"/>
+      <c r="F89" s="6"/>
+      <c r="G89" s="6"/>
+      <c r="H89" s="7"/>
+      <c r="I89" s="7"/>
+      <c r="J89" s="7"/>
+      <c r="K89" s="7"/>
     </row>
     <row r="90" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A90" s="16" t="s">
+      <c r="A90" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="B90" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C90" s="15"/>
-      <c r="D90" s="7"/>
-      <c r="E90" s="7"/>
-      <c r="F90" s="7"/>
-      <c r="G90" s="7"/>
-      <c r="H90" s="8"/>
-      <c r="I90" s="8"/>
-      <c r="J90" s="8"/>
-      <c r="K90" s="8"/>
+      <c r="B90" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C90" s="14"/>
+      <c r="D90" s="6"/>
+      <c r="E90" s="6"/>
+      <c r="F90" s="6"/>
+      <c r="G90" s="6"/>
+      <c r="H90" s="7"/>
+      <c r="I90" s="7"/>
+      <c r="J90" s="7"/>
+      <c r="K90" s="7"/>
     </row>
     <row r="91" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A91" s="16" t="s">
+      <c r="A91" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="B91" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C91" s="15"/>
-      <c r="D91" s="7"/>
-      <c r="E91" s="7"/>
-      <c r="F91" s="7"/>
-      <c r="G91" s="7"/>
-      <c r="H91" s="8"/>
-      <c r="I91" s="8"/>
-      <c r="J91" s="8"/>
-      <c r="K91" s="8"/>
+      <c r="B91" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C91" s="14"/>
+      <c r="D91" s="6"/>
+      <c r="E91" s="6"/>
+      <c r="F91" s="6"/>
+      <c r="G91" s="6"/>
+      <c r="H91" s="7"/>
+      <c r="I91" s="7"/>
+      <c r="J91" s="7"/>
+      <c r="K91" s="7"/>
     </row>
     <row r="92" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B92" s="15"/>
-      <c r="C92" s="15"/>
-      <c r="D92" s="7"/>
-      <c r="E92" s="7"/>
-      <c r="F92" s="7"/>
-      <c r="G92" s="7"/>
+      <c r="B92" s="14"/>
+      <c r="C92" s="14"/>
+      <c r="D92" s="6"/>
+      <c r="E92" s="6"/>
+      <c r="F92" s="6"/>
+      <c r="G92" s="6"/>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A93" s="25" t="s">
+      <c r="A93" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B93" s="25" t="s">
+      <c r="B93" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C93" s="27" t="s">
+      <c r="C93" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D93" s="29" t="s">
+      <c r="D93" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="E93" s="29"/>
-      <c r="F93" s="29"/>
-      <c r="G93" s="29"/>
-      <c r="H93" s="30" t="s">
+      <c r="E93" s="31"/>
+      <c r="F93" s="31"/>
+      <c r="G93" s="31"/>
+      <c r="H93" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="I93" s="30"/>
-      <c r="J93" s="30"/>
-      <c r="K93" s="30"/>
+      <c r="I93" s="32"/>
+      <c r="J93" s="32"/>
+      <c r="K93" s="32"/>
     </row>
     <row r="94" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A94" s="26"/>
-      <c r="B94" s="26"/>
-      <c r="C94" s="28"/>
+      <c r="A94" s="28"/>
+      <c r="B94" s="28"/>
+      <c r="C94" s="30"/>
       <c r="D94" s="3" t="s">
         <v>5</v>
       </c>
@@ -3067,92 +3214,132 @@
       </c>
     </row>
     <row r="95" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A95" s="16" t="s">
+      <c r="A95" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="B95" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C95" s="15"/>
-      <c r="D95" s="7"/>
-      <c r="E95" s="7"/>
-      <c r="F95" s="7"/>
-      <c r="G95" s="7"/>
-      <c r="H95" s="8"/>
-      <c r="I95" s="8"/>
-      <c r="J95" s="8"/>
-      <c r="K95" s="8"/>
+      <c r="B95" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C95" s="14"/>
+      <c r="D95" s="6"/>
+      <c r="E95" s="6"/>
+      <c r="F95" s="6"/>
+      <c r="G95" s="6"/>
+      <c r="H95" s="7"/>
+      <c r="I95" s="7"/>
+      <c r="J95" s="7"/>
+      <c r="K95" s="7"/>
     </row>
     <row r="96" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A96" s="16" t="s">
+      <c r="A96" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="B96" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C96" s="15"/>
-      <c r="D96" s="7"/>
-      <c r="E96" s="7"/>
-      <c r="F96" s="7"/>
-      <c r="G96" s="7"/>
-      <c r="H96" s="8"/>
-      <c r="I96" s="8"/>
-      <c r="J96" s="8"/>
-      <c r="K96" s="8"/>
+      <c r="B96" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C96" s="14"/>
+      <c r="D96" s="6"/>
+      <c r="E96" s="6"/>
+      <c r="F96" s="6"/>
+      <c r="G96" s="6"/>
+      <c r="H96" s="7"/>
+      <c r="I96" s="7"/>
+      <c r="J96" s="7"/>
+      <c r="K96" s="7"/>
     </row>
     <row r="97" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A97" s="16" t="s">
+      <c r="A97" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="B97" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C97" s="15"/>
-      <c r="D97" s="7"/>
-      <c r="E97" s="7"/>
-      <c r="F97" s="7"/>
-      <c r="G97" s="7"/>
-      <c r="H97" s="8"/>
-      <c r="I97" s="8"/>
-      <c r="J97" s="8"/>
-      <c r="K97" s="8"/>
+      <c r="B97" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C97" s="14"/>
+      <c r="D97" s="6"/>
+      <c r="E97" s="6"/>
+      <c r="F97" s="6"/>
+      <c r="G97" s="6"/>
+      <c r="H97" s="7"/>
+      <c r="I97" s="7"/>
+      <c r="J97" s="7"/>
+      <c r="K97" s="7"/>
     </row>
     <row r="98" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A98" s="16" t="s">
+      <c r="A98" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="B98" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C98" s="15"/>
-      <c r="D98" s="7"/>
-      <c r="E98" s="7"/>
-      <c r="F98" s="7"/>
-      <c r="G98" s="7"/>
-      <c r="H98" s="8"/>
-      <c r="I98" s="8"/>
-      <c r="J98" s="8"/>
-      <c r="K98" s="8"/>
+      <c r="B98" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C98" s="14"/>
+      <c r="D98" s="6"/>
+      <c r="E98" s="6"/>
+      <c r="F98" s="6"/>
+      <c r="G98" s="6"/>
+      <c r="H98" s="7"/>
+      <c r="I98" s="7"/>
+      <c r="J98" s="7"/>
+      <c r="K98" s="7"/>
     </row>
     <row r="99" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A99" s="16" t="s">
+      <c r="A99" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="B99" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C99" s="15"/>
-      <c r="D99" s="7"/>
-      <c r="E99" s="7"/>
-      <c r="F99" s="7"/>
-      <c r="G99" s="7"/>
-      <c r="H99" s="8"/>
-      <c r="I99" s="8"/>
-      <c r="J99" s="8"/>
-      <c r="K99" s="8"/>
+      <c r="B99" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C99" s="14"/>
+      <c r="D99" s="6"/>
+      <c r="E99" s="6"/>
+      <c r="F99" s="6"/>
+      <c r="G99" s="6"/>
+      <c r="H99" s="7"/>
+      <c r="I99" s="7"/>
+      <c r="J99" s="7"/>
+      <c r="K99" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="51">
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="C93:C94"/>
+    <mergeCell ref="D93:G93"/>
+    <mergeCell ref="H93:K93"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="D85:G85"/>
+    <mergeCell ref="H85:K85"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="D77:G77"/>
+    <mergeCell ref="H77:K77"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="D69:G69"/>
+    <mergeCell ref="H69:K69"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="D61:G61"/>
+    <mergeCell ref="H61:K61"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:G53"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D45:G45"/>
+    <mergeCell ref="H45:K45"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:G37"/>
+    <mergeCell ref="H37:K37"/>
     <mergeCell ref="M6:Q6"/>
     <mergeCell ref="A29:A30"/>
     <mergeCell ref="B29:B30"/>
@@ -3164,46 +3351,6 @@
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:G6"/>
     <mergeCell ref="H6:K6"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:G37"/>
-    <mergeCell ref="H37:K37"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D45:G45"/>
-    <mergeCell ref="H45:K45"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:G53"/>
-    <mergeCell ref="H53:K53"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="D61:G61"/>
-    <mergeCell ref="H61:K61"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="D69:G69"/>
-    <mergeCell ref="H69:K69"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="D77:G77"/>
-    <mergeCell ref="H77:K77"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="C85:C86"/>
-    <mergeCell ref="D85:G85"/>
-    <mergeCell ref="H85:K85"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="B93:B94"/>
-    <mergeCell ref="C93:C94"/>
-    <mergeCell ref="D93:G93"/>
-    <mergeCell ref="H93:K93"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
